--- a/PIljavets_TimeLog.xlsx
+++ b/PIljavets_TimeLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максимилиан\Desktop\ISA(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максимилиан\Desktop\ISA(2)\ISA(II)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09CD8D2-6A2A-4852-AE94-D687CE926087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2756F58-1A93-4E70-BB42-847847854A63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -71,37 +71,31 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Lecture</t>
-  </si>
-  <si>
     <t>Total Time:</t>
   </si>
   <si>
     <t>Prep.</t>
   </si>
   <si>
-    <t>Installing ReSharper and VS Enterprise</t>
-  </si>
-  <si>
-    <t>Creating GitHub account and getting used with it (writing notes)</t>
-  </si>
-  <si>
     <t>Nikita Piljavets</t>
   </si>
   <si>
-    <t>Watching C# course in MVA (repeat)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lecture - praktikum </t>
   </si>
   <si>
-    <t>Watching C# course in MVA &amp; writing NOTES</t>
-  </si>
-  <si>
-    <t>Started reading a book</t>
-  </si>
-  <si>
     <t>Reading the book</t>
+  </si>
+  <si>
+    <t>Installing VS code and connecting GitHub</t>
+  </si>
+  <si>
+    <t>Watching C# course in MVA (c#)</t>
+  </si>
+  <si>
+    <t>Watching HTML course in MVA &amp; writing NOTES</t>
+  </si>
+  <si>
+    <t>Watching HTML course in MVA</t>
   </si>
 </sst>
 </file>
@@ -136,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -399,19 +393,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -497,13 +478,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,15 +496,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -566,6 +538,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -882,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,69 +869,69 @@
     <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="44">
-        <v>43500</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="G4" s="41">
+        <v>43507</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -993,24 +968,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="18">
-        <v>43493</v>
+        <v>43501</v>
       </c>
       <c r="C7" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D7" s="19">
-        <v>0.72916666666666663</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>90</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
@@ -1021,46 +996,48 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8">
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D8" s="8">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>30.000000000000053</v>
+        <v>70.000000000000071</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>43502</v>
+      </c>
       <c r="C9" s="8">
-        <v>0.89583333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="D9" s="8">
-        <v>0.90625</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5">
         <f>(D9-C9)*24*60 - E9</f>
-        <v>14.999999999999947</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
@@ -1070,24 +1047,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>43494</v>
+        <v>43503</v>
       </c>
       <c r="C10" s="8">
-        <v>0.85416666666666663</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D10" s="8">
-        <v>0.88541666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f>(D10-C10)*24*60 - E10</f>
-        <v>45</v>
+        <v>115.00000000000007</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
@@ -1097,26 +1074,24 @@
         <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>43495</v>
+        <v>43504</v>
       </c>
       <c r="C11" s="8">
-        <v>0.44444444444444442</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D11" s="8">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>190.00000000000006</v>
+        <v>120.00000000000006</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
@@ -1127,21 +1102,21 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D12" s="8">
-        <v>0.91666666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f>(D12-C12)*24*60 - E12</f>
-        <v>59.999999999999943</v>
+        <v>30.000000000000053</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
@@ -1151,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="7">
-        <v>43497</v>
+        <v>43505</v>
       </c>
       <c r="C13" s="8">
         <v>0.54861111111111105</v>
@@ -1168,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
@@ -1178,24 +1153,24 @@
         <v>8</v>
       </c>
       <c r="B14" s="7">
-        <v>43499</v>
+        <v>43506</v>
       </c>
       <c r="C14" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="D14" s="8">
-        <v>0.69444444444444453</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>40.000000000000178</v>
+        <v>64.999999999999929</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
@@ -1206,21 +1181,21 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8">
-        <v>0.9375</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="D15" s="8">
-        <v>0.95833333333333337</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5">
         <f>(D15-C15)*24*60 - E15</f>
-        <v>30.000000000000053</v>
+        <v>25.000000000000071</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
@@ -1230,26 +1205,24 @@
         <v>10</v>
       </c>
       <c r="B16" s="7">
-        <v>43500</v>
+        <v>43507</v>
       </c>
       <c r="C16" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.3125</v>
       </c>
       <c r="D16" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E16" s="6">
-        <v>60</v>
-      </c>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>270.00000000000011</v>
+        <v>119.99999999999997</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
@@ -1260,21 +1233,21 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8">
-        <v>0.86805555555555547</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="D17" s="8">
-        <v>0.92013888888888884</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>75.000000000000057</v>
+        <v>164.99999999999989</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
@@ -1287,26 +1260,23 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>985.00000000000045</v>
+        <v>915.00000000000023</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -1314,9 +1284,8 @@
       <c r="J19" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:J4"/>

--- a/PIljavets_TimeLog.xlsx
+++ b/PIljavets_TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максимилиан\Desktop\ISA(2)\ISA(II)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2756F58-1A93-4E70-BB42-847847854A63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49846B06-F817-4E1D-A4F3-43ADC65DC6AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,57 +490,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,68 +876,68 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="44">
         <v>43507</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
+        <f t="shared" ref="F8:F17" si="0">(D8-C8)*24*60 - E8</f>
         <v>70.000000000000071</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1236,12 +1236,12 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D17" s="8">
-        <v>0.97916666666666663</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>164.99999999999989</v>
+        <v>85.000000000000014</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>14</v>
@@ -1267,16 +1267,16 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>915.00000000000023</v>
+        <v>835.00000000000034</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
